--- a/input_files/Metro_topology_synthetic.xlsx
+++ b/input_files/Metro_topology_synthetic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otomy\Documents\GitHub\MAB\input_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otomy\Documents\GitHub2\MAB_Network_Delay_Optimization\input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F8C1F0-91C9-4844-A180-D73E7A910F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9E67AC-9B4F-4AE1-9B9C-EF05AE94E0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="45">
   <si>
     <t>node_name</t>
   </si>
@@ -537,15 +537,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.6328125" customWidth="1"/>
+    <col min="1" max="1" width="46.54296875" customWidth="1"/>
     <col min="2" max="2" width="21.08984375" customWidth="1"/>
     <col min="3" max="3" width="24.08984375" customWidth="1"/>
     <col min="4" max="4" width="27.1796875" customWidth="1"/>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
         <v>44</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
         <v>44</v>
@@ -1116,13 +1116,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
         <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E27">
         <v>12000</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
         <v>44</v>
@@ -1156,13 +1156,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>12000</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
         <v>44</v>
@@ -1196,13 +1196,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
         <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E31">
         <v>12000</v>
@@ -1216,13 +1216,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
         <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>12000</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
         <v>44</v>
@@ -1251,26 +1251,6 @@
         <v>8</v>
       </c>
       <c r="G33">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>12000</v>
-      </c>
-      <c r="F34">
-        <v>8</v>
-      </c>
-      <c r="G34">
         <v>24</v>
       </c>
     </row>
@@ -1282,13 +1262,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.6328125" customWidth="1"/>
+    <col min="2" max="2" width="33.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -2046,6 +2030,748 @@
         <v>100</v>
       </c>
     </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>3.96</v>
+      </c>
+      <c r="D55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1.98</v>
+      </c>
+      <c r="D56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>2.97</v>
+      </c>
+      <c r="D57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>0.99</v>
+      </c>
+      <c r="D58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>1.98</v>
+      </c>
+      <c r="D59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>1.98</v>
+      </c>
+      <c r="D60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>1.98</v>
+      </c>
+      <c r="D61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>2.97</v>
+      </c>
+      <c r="D62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>1.98</v>
+      </c>
+      <c r="D63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>2.97</v>
+      </c>
+      <c r="D64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>2.97</v>
+      </c>
+      <c r="D65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>1.98</v>
+      </c>
+      <c r="D66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>1.98</v>
+      </c>
+      <c r="D67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>0.99</v>
+      </c>
+      <c r="D68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>1.98</v>
+      </c>
+      <c r="D69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70">
+        <v>4.95</v>
+      </c>
+      <c r="D70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>2.97</v>
+      </c>
+      <c r="D71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>0.99</v>
+      </c>
+      <c r="D72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73">
+        <v>0.99</v>
+      </c>
+      <c r="D73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>0.84</v>
+      </c>
+      <c r="D74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75">
+        <v>2.16</v>
+      </c>
+      <c r="D75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76">
+        <v>0.2</v>
+      </c>
+      <c r="D76">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77">
+        <v>0.89</v>
+      </c>
+      <c r="D77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78">
+        <v>0.22</v>
+      </c>
+      <c r="D78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79">
+        <v>1.69</v>
+      </c>
+      <c r="D79">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>0.33</v>
+      </c>
+      <c r="D80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81">
+        <v>3.67</v>
+      </c>
+      <c r="D81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82">
+        <v>1.25</v>
+      </c>
+      <c r="D82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83">
+        <v>0.75</v>
+      </c>
+      <c r="D83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85">
+        <v>1.44</v>
+      </c>
+      <c r="D85">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>0.02</v>
+      </c>
+      <c r="D86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87">
+        <v>1.98</v>
+      </c>
+      <c r="D87">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>25</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88">
+        <v>0.59</v>
+      </c>
+      <c r="D88">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>26</v>
+      </c>
+      <c r="B89" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89">
+        <v>2.56</v>
+      </c>
+      <c r="D89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>27</v>
+      </c>
+      <c r="B90" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90">
+        <v>0.44</v>
+      </c>
+      <c r="D90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91">
+        <v>0.41</v>
+      </c>
+      <c r="D91">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92">
+        <v>0.52</v>
+      </c>
+      <c r="D92">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93">
+        <v>0.12</v>
+      </c>
+      <c r="D93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94">
+        <v>0.36</v>
+      </c>
+      <c r="D94">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>3.06</v>
+      </c>
+      <c r="D95">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96">
+        <v>0.94</v>
+      </c>
+      <c r="D96">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>30</v>
+      </c>
+      <c r="B97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D97">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98" t="s">
+        <v>30</v>
+      </c>
+      <c r="C98">
+        <v>0.25</v>
+      </c>
+      <c r="D98">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>32</v>
+      </c>
+      <c r="B99" t="s">
+        <v>31</v>
+      </c>
+      <c r="C99">
+        <v>0.54</v>
+      </c>
+      <c r="D99">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" t="s">
+        <v>32</v>
+      </c>
+      <c r="C100">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>33</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>2.31</v>
+      </c>
+      <c r="D101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102">
+        <v>1.69</v>
+      </c>
+      <c r="D102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>34</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103">
+        <v>0.33</v>
+      </c>
+      <c r="D103">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>35</v>
+      </c>
+      <c r="B104" t="s">
+        <v>34</v>
+      </c>
+      <c r="C104">
+        <v>0.54</v>
+      </c>
+      <c r="D104">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105" t="s">
+        <v>35</v>
+      </c>
+      <c r="C105">
+        <v>0.13</v>
+      </c>
+      <c r="D105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>36</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>0.22</v>
+      </c>
+      <c r="D106">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" t="s">
+        <v>36</v>
+      </c>
+      <c r="C107">
+        <v>0.78</v>
+      </c>
+      <c r="D107">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
